--- a/reports/Angola_trade_profile_2010-2021.xlsx
+++ b/reports/Angola_trade_profile_2010-2021.xlsx
@@ -535,25 +535,25 @@
         <v>28722984064</v>
       </c>
       <c r="C4">
-        <v>21470797538.925</v>
+        <v>21470797556.071</v>
       </c>
       <c r="D4">
         <v>70863076413</v>
       </c>
       <c r="E4">
-        <v>75490334173.89799</v>
+        <v>75490334188.022</v>
       </c>
       <c r="F4">
         <v>42140092349</v>
       </c>
       <c r="G4">
-        <v>46767350109.89799</v>
+        <v>46767350124.022</v>
       </c>
       <c r="H4">
         <v>99586060477</v>
       </c>
       <c r="I4">
-        <v>104213318237.898</v>
+        <v>104213318252.022</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -628,19 +628,19 @@
         <v>33924937478.31</v>
       </c>
       <c r="E7">
-        <v>36829899264.382</v>
+        <v>36829899326.955</v>
       </c>
       <c r="F7">
         <v>12375680947.8</v>
       </c>
       <c r="G7">
-        <v>15280642733.87201</v>
+        <v>15280642796.445</v>
       </c>
       <c r="H7">
         <v>55474194008.82</v>
       </c>
       <c r="I7">
-        <v>58379155794.892</v>
+        <v>58379155857.465</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -767,25 +767,25 @@
         <v>9337925708.641001</v>
       </c>
       <c r="C12">
-        <v>7425544474.432</v>
+        <v>7425556883.677</v>
       </c>
       <c r="D12">
         <v>22134505473.377</v>
       </c>
       <c r="E12">
-        <v>24009441917.397</v>
+        <v>24009465280.814</v>
       </c>
       <c r="F12">
         <v>12796579764.736</v>
       </c>
       <c r="G12">
-        <v>14671516208.756</v>
+        <v>14671539572.173</v>
       </c>
       <c r="H12">
         <v>31472431182.018</v>
       </c>
       <c r="I12">
-        <v>33347367626.038</v>
+        <v>33347390989.455</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -796,7 +796,7 @@
         <v>11378927920.701</v>
       </c>
       <c r="C13">
-        <v>9446553711.99</v>
+        <v>9446555105.162001</v>
       </c>
       <c r="D13">
         <v>34472161956.832</v>
